--- a/2020_02_08_pycon_rise_and_poll/data/2020_02_08_encuesta2_pycon.xlsx
+++ b/2020_02_08_pycon_rise_and_poll/data/2020_02_08_encuesta2_pycon.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22604"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E36F271-3784-4699-987C-DDF9E9A6016F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E419206B-8B83-494C-8A63-2ACAB8DFDC6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/2020_02_08_pycon_rise_and_poll/data/2020_02_08_encuesta2_pycon.xlsx
+++ b/2020_02_08_pycon_rise_and_poll/data/2020_02_08_encuesta2_pycon.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22604"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E419206B-8B83-494C-8A63-2ACAB8DFDC6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AA0C3F3-533E-46FA-B947-7804FCFC4CFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>zu7OdUTRPU-clJ5rQCX8_4qs5cX1Y7dFhVdiCz848sBUNFU3UzU3OTNHVDhWNURSMEs2WDBUMDdCTi4u</t>
   </si>
@@ -64,13 +64,7 @@
     <t>anonymous</t>
   </si>
   <si>
-    <t>Otra!</t>
-  </si>
-  <si>
     <t>Python</t>
-  </si>
-  <si>
-    <t>Dog</t>
   </si>
 </sst>
 </file>
@@ -155,8 +149,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{368B7C2D-B3F0-4E87-867A-85596EEEBF0E}" name="Tabla1" displayName="Tabla1" ref="A1:F5" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F5" xr:uid="{C17FF386-801A-45BD-9664-381087D2CDC4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{368B7C2D-B3F0-4E87-867A-85596EEEBF0E}" name="Tabla1" displayName="Tabla1" ref="A1:F2" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F2" xr:uid="{C17FF386-801A-45BD-9664-381087D2CDC4}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1F4C6FC0-5DBB-48E4-B39B-EEEBA81D7F81}" name="ID" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{A96E3FC3-B0EA-443F-BB48-89BD33CE0FCF}" name="Start time" dataDxfId="4"/>
@@ -496,10 +490,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AC4F16-E8F8-4415-B0E6-1378376FC8F3}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A1048555" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -530,13 +524,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3">
-        <v>43864.580601851849</v>
+        <v>43864.602951388886</v>
       </c>
       <c r="C2" s="3">
-        <v>43864.580682870372</v>
+        <v>43864.603090277778</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -544,60 +538,6 @@
       <c r="E2" s="2"/>
       <c r="F2" s="4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3">
-        <v>43864.580821759257</v>
-      </c>
-      <c r="C3" s="3">
-        <v>43864.580972222226</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <v>43864.580995370372</v>
-      </c>
-      <c r="C4" s="3">
-        <v>43864.581030092595</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3">
-        <v>43864.602951388886</v>
-      </c>
-      <c r="C5" s="3">
-        <v>43864.603090277778</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/2020_02_08_pycon_rise_and_poll/data/2020_02_08_encuesta2_pycon.xlsx
+++ b/2020_02_08_pycon_rise_and_poll/data/2020_02_08_encuesta2_pycon.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22604"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AA0C3F3-533E-46FA-B947-7804FCFC4CFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CCDF494-0602-4739-A5CC-CFD1700A646B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>zu7OdUTRPU-clJ5rQCX8_4qs5cX1Y7dFhVdiCz848sBUNFU3UzU3OTNHVDhWNURSMEs2WDBUMDdCTi4u</t>
   </si>
@@ -149,8 +149,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{368B7C2D-B3F0-4E87-867A-85596EEEBF0E}" name="Tabla1" displayName="Tabla1" ref="A1:F2" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F2" xr:uid="{C17FF386-801A-45BD-9664-381087D2CDC4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{368B7C2D-B3F0-4E87-867A-85596EEEBF0E}" name="Tabla1" displayName="Tabla1" ref="A1:F3" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F3" xr:uid="{C17FF386-801A-45BD-9664-381087D2CDC4}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1F4C6FC0-5DBB-48E4-B39B-EEEBA81D7F81}" name="ID" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{A96E3FC3-B0EA-443F-BB48-89BD33CE0FCF}" name="Start time" dataDxfId="4"/>
@@ -490,7 +490,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AC4F16-E8F8-4415-B0E6-1378376FC8F3}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1048555" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD1048576"/>
@@ -540,6 +540,24 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43869.022476851853</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43869.022534722222</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/2020_02_08_pycon_rise_and_poll/data/2020_02_08_encuesta2_pycon.xlsx
+++ b/2020_02_08_pycon_rise_and_poll/data/2020_02_08_encuesta2_pycon.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22604"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CCDF494-0602-4739-A5CC-CFD1700A646B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66A55BDE-DE52-43B6-9091-12C4E5358C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
   <si>
     <t>zu7OdUTRPU-clJ5rQCX8_4qs5cX1Y7dFhVdiCz848sBUNFU3UzU3OTNHVDhWNURSMEs2WDBUMDdCTi4u</t>
   </si>
@@ -65,6 +65,21 @@
   </si>
   <si>
     <t>Python</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>RISE</t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+  <si>
+    <t>León</t>
   </si>
 </sst>
 </file>
@@ -149,8 +164,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{368B7C2D-B3F0-4E87-867A-85596EEEBF0E}" name="Tabla1" displayName="Tabla1" ref="A1:F3" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F3" xr:uid="{C17FF386-801A-45BD-9664-381087D2CDC4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{368B7C2D-B3F0-4E87-867A-85596EEEBF0E}" name="Tabla1" displayName="Tabla1" ref="A1:F23" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F23" xr:uid="{C17FF386-801A-45BD-9664-381087D2CDC4}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1F4C6FC0-5DBB-48E4-B39B-EEEBA81D7F81}" name="ID" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{A96E3FC3-B0EA-443F-BB48-89BD33CE0FCF}" name="Start time" dataDxfId="4"/>
@@ -490,7 +505,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AC4F16-E8F8-4415-B0E6-1378376FC8F3}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1048555" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD1048576"/>
@@ -558,6 +573,366 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43869.750034722223</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43869.750092592592</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43869.7500462963</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43869.750104166669</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43869.750081018516</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43869.750138888892</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43869.750092592592</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43869.750173611108</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43869.750150462962</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43869.750231481485</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43869.750034722223</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43869.750254629631</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43869.750208333331</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43869.7503125</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
+        <v>43869.750243055554</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43869.750324074077</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3">
+        <v>43869.750243055554</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43869.750335648147</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
+        <v>43869.750243055554</v>
+      </c>
+      <c r="C13" s="3">
+        <v>43869.750381944446</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3">
+        <v>43869.7500462963</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43869.750393518516</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43869.750381944446</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43869.750416666669</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43869.749965277777</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43869.750439814816</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3">
+        <v>43869.750219907408</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43869.750451388885</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3">
+        <v>43869.7500462963</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43869.750486111108</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3">
+        <v>43869.750081018516</v>
+      </c>
+      <c r="C19" s="3">
+        <v>43869.750486111108</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>27</v>
+      </c>
+      <c r="B20" s="3">
+        <v>43869.749988425923</v>
+      </c>
+      <c r="C20" s="3">
+        <v>43869.750497685185</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>28</v>
+      </c>
+      <c r="B21" s="3">
+        <v>43869.750057870369</v>
+      </c>
+      <c r="C21" s="3">
+        <v>43869.750625000001</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3">
+        <v>43869.750590277778</v>
+      </c>
+      <c r="C22" s="3">
+        <v>43869.750625000001</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3">
+        <v>43869.75072916667</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43869.750763888886</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
